--- a/Extraction_PO_Data_IntoCSV/Data/Input/Template/Line Item Template.xlsx
+++ b/Extraction_PO_Data_IntoCSV/Data/Input/Template/Line Item Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa.uat\Documents\UiPath\SH-Cogent\Extraction_PO_Data_IntoCSV\Data\Input\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3C9E00-213B-4F05-84DA-142792235CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFCE2D9-FEA8-427A-BC4A-B77A1E9A62E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Company code</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Tax code</t>
-  </si>
-  <si>
-    <t>Tax rate</t>
   </si>
   <si>
     <t>Non-deductible tax rate</t>
@@ -631,11 +628,8 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -961,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AL1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,253 +987,133 @@
     <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.28515625" customWidth="1"/>
-    <col min="34" max="34" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.42578125" customWidth="1"/>
-    <col min="37" max="37" width="18.28515625" customWidth="1"/>
-    <col min="38" max="38" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.85546875" customWidth="1"/>
+    <col min="29" max="29" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.28515625" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.42578125" customWidth="1"/>
+    <col min="36" max="36" width="18.28515625" customWidth="1"/>
+    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Extraction_PO_Data_IntoCSV/Data/Input/Template/Line Item Template.xlsx
+++ b/Extraction_PO_Data_IntoCSV/Data/Input/Template/Line Item Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa.uat\Documents\UiPath\SH-Cogent\Extraction_PO_Data_IntoCSV\Data\Input\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFCE2D9-FEA8-427A-BC4A-B77A1E9A62E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9E63DC-1907-469E-B89B-6AD5089B3556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,7 +958,7 @@
   <dimension ref="A1:AL1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
